--- a/DocumentsGameDesign/Taches restantes.xlsx
+++ b/DocumentsGameDesign/Taches restantes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aries\Documents\GameDev2015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aries\Documents\gdp9\DocumentsGameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Barre de vie qui baisse par coups</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Faire des FX pour les mettre en avant</t>
+  </si>
+  <si>
+    <t>Sons</t>
+  </si>
+  <si>
+    <t>Implémenter sons</t>
   </si>
 </sst>
 </file>
@@ -538,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.5703125" defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -606,8 +612,8 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -620,8 +626,8 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -634,6 +640,9 @@
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -646,52 +655,63 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+    <row r="10" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="11"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
     </row>
